--- a/Location Details/S Meridian St, Indianapolis, IN 46225_conference.xlsx
+++ b/Location Details/S Meridian St, Indianapolis, IN 46225_conference.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
         <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -872,12 +872,12 @@
         <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -886,19 +886,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Indiana Geographic Information Council (IGIC)</t>
+          <t>Indiana Government Center Conference Rooms A and B</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -907,19 +907,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Indiana Government Center Conference Rooms A and B</t>
+          <t>Indiana Roof Ballroom</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -928,19 +928,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Indiana Roof Ballroom</t>
+          <t>Indiana Water Environment Association</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -949,19 +949,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Indiana Water Environment Association</t>
+          <t>Indiana Wesleyan University - Greenwood Education and Conference Center</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -970,19 +970,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Indiana Wesleyan University - Greenwood Education and Conference Center</t>
+          <t>Indiana Wesleyan University - Indianapolis North Education and Conference Center</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -991,19 +991,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Indiana Wesleyan University - Indianapolis North Education and Conference Center</t>
+          <t>Indiana Wesleyan University - Indianapolis West Education and Conference Center</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1012,19 +1012,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Indiana Wesleyan University - Indianapolis West Education and Conference Center</t>
+          <t>Indiana-Kentucky Conference</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1033,19 +1033,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Indiana-Kentucky Conference</t>
+          <t>Indianapolis EMS Conference Center</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Indianapolis EMS Conference Center</t>
+          <t>Indy West</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1075,19 +1075,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Indy West</t>
+          <t>IndyFurCon</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1096,19 +1096,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IndyFurCon</t>
+          <t>Ivy Tech Community College Culinary and Conference Center</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1117,19 +1117,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ivy Tech Community College Culinary and Conference Center</t>
+          <t>JW Marriott Convention Center</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="E33" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JW Marriott Convention Center</t>
+          <t>Kheprw Institute</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1159,14 +1159,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kheprw Institute</t>
+          <t>MCON</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1192,7 +1192,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>4.1</v>
       </c>
       <c r="E46" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="47">
@@ -1423,7 +1423,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>4.9</v>
       </c>
       <c r="E48" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
